--- a/natmiOut/YoungD2/LR-pairs_lrc2p/Col8a1-Itga1.xlsx
+++ b/natmiOut/YoungD2/LR-pairs_lrc2p/Col8a1-Itga1.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="68" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="116" uniqueCount="28">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -82,6 +82,9 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>M1</t>
+  </si>
+  <si>
     <t>sCs</t>
   </si>
   <si>
@@ -89,6 +92,9 @@
   </si>
   <si>
     <t>Itga1</t>
+  </si>
+  <si>
+    <t>M2</t>
   </si>
   <si>
     <t>Neutro</t>
@@ -449,7 +455,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T13"/>
+  <dimension ref="A1:T25"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -522,61 +528,61 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D2" t="s">
         <v>20</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>2.31216364758403</v>
+        <v>3.822376999999999</v>
       </c>
       <c r="H2">
-        <v>2.31216364758403</v>
+        <v>11.467131</v>
       </c>
       <c r="I2">
-        <v>0.0248363647207858</v>
+        <v>0.0389094714863049</v>
       </c>
       <c r="J2">
-        <v>0.0248363647207858</v>
+        <v>0.03890947148630491</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>43.3312160282181</v>
+        <v>46.85312199999999</v>
       </c>
       <c r="N2">
-        <v>43.3312160282181</v>
+        <v>140.559366</v>
       </c>
       <c r="O2">
-        <v>0.6521342183754182</v>
+        <v>0.6250615697984292</v>
       </c>
       <c r="P2">
-        <v>0.6521342183754182</v>
+        <v>0.6250615697984292</v>
       </c>
       <c r="Q2">
-        <v>100.1888625060564</v>
+        <v>179.0902959109939</v>
       </c>
       <c r="R2">
-        <v>100.1888625060564</v>
+        <v>1611.812663198946</v>
       </c>
       <c r="S2">
-        <v>0.01619664329447646</v>
+        <v>0.02432081532725696</v>
       </c>
       <c r="T2">
-        <v>0.01619664329447646</v>
+        <v>0.02432081532725696</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -584,61 +590,61 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C3" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D3" t="s">
         <v>21</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>2.31216364758403</v>
+        <v>3.822376999999999</v>
       </c>
       <c r="H3">
-        <v>2.31216364758403</v>
+        <v>11.467131</v>
       </c>
       <c r="I3">
-        <v>0.0248363647207858</v>
+        <v>0.0389094714863049</v>
       </c>
       <c r="J3">
-        <v>0.0248363647207858</v>
+        <v>0.03890947148630491</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>2.92098964314601</v>
+        <v>2.924192</v>
       </c>
       <c r="N3">
-        <v>2.92098964314601</v>
+        <v>8.772575999999999</v>
       </c>
       <c r="O3">
-        <v>0.04396085483904313</v>
+        <v>0.03901127531932681</v>
       </c>
       <c r="P3">
-        <v>0.04396085483904313</v>
+        <v>0.03901127531932681</v>
       </c>
       <c r="Q3">
-        <v>6.753806067851652</v>
+        <v>11.177364244384</v>
       </c>
       <c r="R3">
-        <v>6.753806067851652</v>
+        <v>100.596278199456</v>
       </c>
       <c r="S3">
-        <v>0.001091827824219996</v>
+        <v>0.001517908104681737</v>
       </c>
       <c r="T3">
-        <v>0.001091827824219996</v>
+        <v>0.001517908104681737</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -646,61 +652,61 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C4" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>2.31216364758403</v>
+        <v>3.822376999999999</v>
       </c>
       <c r="H4">
-        <v>2.31216364758403</v>
+        <v>11.467131</v>
       </c>
       <c r="I4">
-        <v>0.0248363647207858</v>
+        <v>0.0389094714863049</v>
       </c>
       <c r="J4">
-        <v>0.0248363647207858</v>
+        <v>0.03890947148630491</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M4">
-        <v>0.545116597798324</v>
+        <v>3.111826333333333</v>
       </c>
       <c r="N4">
-        <v>0.545116597798324</v>
+        <v>9.335478999999999</v>
       </c>
       <c r="O4">
-        <v>0.008203997464487866</v>
+        <v>0.04151448120903071</v>
       </c>
       <c r="P4">
-        <v>0.008203997464487866</v>
+        <v>0.04151448120903071</v>
       </c>
       <c r="Q4">
-        <v>1.260398781123969</v>
+        <v>11.89457340452766</v>
       </c>
       <c r="R4">
-        <v>1.260398781123969</v>
+        <v>107.051160640749</v>
       </c>
       <c r="S4">
-        <v>0.0002037574731964226</v>
+        <v>0.001615306522871521</v>
       </c>
       <c r="T4">
-        <v>0.0002037574731964226</v>
+        <v>0.001615306522871521</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -708,185 +714,185 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C5" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D5" t="s">
-        <v>22</v>
+        <v>26</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>2.31216364758403</v>
+        <v>3.822376999999999</v>
       </c>
       <c r="H5">
-        <v>2.31216364758403</v>
+        <v>11.467131</v>
       </c>
       <c r="I5">
-        <v>0.0248363647207858</v>
+        <v>0.0389094714863049</v>
       </c>
       <c r="J5">
-        <v>0.0248363647207858</v>
+        <v>0.03890947148630491</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L5">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M5">
-        <v>19.6479198409109</v>
+        <v>0.2871186666666667</v>
       </c>
       <c r="N5">
-        <v>19.6479198409109</v>
+        <v>0.861356</v>
       </c>
       <c r="O5">
-        <v>0.2957009293210507</v>
+        <v>0.003830413787689508</v>
       </c>
       <c r="P5">
-        <v>0.2957009293210507</v>
+        <v>0.003830413787689508</v>
       </c>
       <c r="Q5">
-        <v>45.42920600679918</v>
+        <v>1.097475787737333</v>
       </c>
       <c r="R5">
-        <v>45.42920600679918</v>
+        <v>9.877282089635999</v>
       </c>
       <c r="S5">
-        <v>0.00734413612889292</v>
+        <v>0.0001490393760528541</v>
       </c>
       <c r="T5">
-        <v>0.00734413612889292</v>
+        <v>0.0001490393760528541</v>
       </c>
     </row>
     <row r="6" spans="1:20">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C6" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D6" t="s">
-        <v>20</v>
+        <v>27</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>76.6783723994731</v>
+        <v>3.822376999999999</v>
       </c>
       <c r="H6">
-        <v>76.6783723994731</v>
+        <v>11.467131</v>
       </c>
       <c r="I6">
-        <v>0.8236493230483325</v>
+        <v>0.0389094714863049</v>
       </c>
       <c r="J6">
-        <v>0.8236493230483325</v>
+        <v>0.03890947148630491</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>43.3312160282181</v>
+        <v>0.5945973333333333</v>
       </c>
       <c r="N6">
-        <v>43.3312160282181</v>
+        <v>1.783792</v>
       </c>
       <c r="O6">
-        <v>0.6521342183754182</v>
+        <v>0.007932447758151382</v>
       </c>
       <c r="P6">
-        <v>0.6521342183754182</v>
+        <v>0.007932447758151382</v>
       </c>
       <c r="Q6">
-        <v>3322.567119133726</v>
+        <v>2.272775171194666</v>
       </c>
       <c r="R6">
-        <v>3322.567119133726</v>
+        <v>20.454976540752</v>
       </c>
       <c r="S6">
-        <v>0.5371299075015666</v>
+        <v>0.0003086473498623944</v>
       </c>
       <c r="T6">
-        <v>0.5371299075015666</v>
+        <v>0.0003086473498623945</v>
       </c>
     </row>
     <row r="7" spans="1:20">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B7" t="s">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>25</v>
+      </c>
+      <c r="D7" t="s">
         <v>23</v>
       </c>
-      <c r="C7" t="s">
-        <v>24</v>
-      </c>
-      <c r="D7" t="s">
-        <v>21</v>
-      </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>76.6783723994731</v>
+        <v>3.822376999999999</v>
       </c>
       <c r="H7">
-        <v>76.6783723994731</v>
+        <v>11.467131</v>
       </c>
       <c r="I7">
-        <v>0.8236493230483325</v>
+        <v>0.0389094714863049</v>
       </c>
       <c r="J7">
-        <v>0.8236493230483325</v>
+        <v>0.03890947148630491</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>2.92098964314601</v>
+        <v>21.18675466666667</v>
       </c>
       <c r="N7">
-        <v>2.92098964314601</v>
+        <v>63.560264</v>
       </c>
       <c r="O7">
-        <v>0.04396085483904313</v>
+        <v>0.2826498121273726</v>
       </c>
       <c r="P7">
-        <v>0.04396085483904313</v>
+        <v>0.2826498121273725</v>
       </c>
       <c r="Q7">
-        <v>223.9767316321538</v>
+        <v>80.98376374250932</v>
       </c>
       <c r="R7">
-        <v>223.9767316321538</v>
+        <v>728.853873682584</v>
       </c>
       <c r="S7">
-        <v>0.03620832832880388</v>
+        <v>0.01099775480557944</v>
       </c>
       <c r="T7">
-        <v>0.03620832832880388</v>
+        <v>0.01099775480557944</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -894,61 +900,61 @@
         <v>21</v>
       </c>
       <c r="B8" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C8" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D8" t="s">
-        <v>25</v>
+        <v>20</v>
       </c>
       <c r="E8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8">
         <v>1</v>
       </c>
       <c r="G8">
-        <v>76.6783723994731</v>
+        <v>76.691513</v>
       </c>
       <c r="H8">
-        <v>76.6783723994731</v>
+        <v>230.074539</v>
       </c>
       <c r="I8">
-        <v>0.8236493230483325</v>
+        <v>0.7806729263793399</v>
       </c>
       <c r="J8">
-        <v>0.8236493230483325</v>
+        <v>0.7806729263793399</v>
       </c>
       <c r="K8">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L8">
         <v>1</v>
       </c>
       <c r="M8">
-        <v>0.545116597798324</v>
+        <v>46.85312199999999</v>
       </c>
       <c r="N8">
-        <v>0.545116597798324</v>
+        <v>140.559366</v>
       </c>
       <c r="O8">
-        <v>0.008203997464487866</v>
+        <v>0.6250615697984292</v>
       </c>
       <c r="P8">
-        <v>0.008203997464487866</v>
+        <v>0.6250615697984292</v>
       </c>
       <c r="Q8">
-        <v>41.79865348711369</v>
+        <v>3593.236814953586</v>
       </c>
       <c r="R8">
-        <v>41.79865348711369</v>
+        <v>32339.13133458227</v>
       </c>
       <c r="S8">
-        <v>0.006757216957915667</v>
+        <v>0.4879686448618037</v>
       </c>
       <c r="T8">
-        <v>0.006757216957915667</v>
+        <v>0.4879686448618037</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -956,309 +962,1053 @@
         <v>21</v>
       </c>
       <c r="B9" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C9" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D9" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="E9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F9">
         <v>1</v>
       </c>
       <c r="G9">
-        <v>76.6783723994731</v>
+        <v>76.691513</v>
       </c>
       <c r="H9">
-        <v>76.6783723994731</v>
+        <v>230.074539</v>
       </c>
       <c r="I9">
-        <v>0.8236493230483325</v>
+        <v>0.7806729263793399</v>
       </c>
       <c r="J9">
-        <v>0.8236493230483325</v>
+        <v>0.7806729263793399</v>
       </c>
       <c r="K9">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L9">
         <v>1</v>
       </c>
       <c r="M9">
-        <v>19.6479198409109</v>
+        <v>2.924192</v>
       </c>
       <c r="N9">
-        <v>19.6479198409109</v>
+        <v>8.772575999999999</v>
       </c>
       <c r="O9">
-        <v>0.2957009293210507</v>
+        <v>0.03901127531932681</v>
       </c>
       <c r="P9">
-        <v>0.2957009293210507</v>
+        <v>0.03901127531932681</v>
       </c>
       <c r="Q9">
-        <v>1506.570514436362</v>
+        <v>224.260708782496</v>
       </c>
       <c r="R9">
-        <v>1506.570514436362</v>
+        <v>2018.346379042464</v>
       </c>
       <c r="S9">
-        <v>0.2435538702600463</v>
+        <v>0.03045504646532898</v>
       </c>
       <c r="T9">
-        <v>0.2435538702600463</v>
+        <v>0.03045504646532898</v>
       </c>
     </row>
     <row r="10" spans="1:20">
       <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>24</v>
+      </c>
+      <c r="C10" t="s">
+        <v>25</v>
+      </c>
+      <c r="D10" t="s">
         <v>22</v>
       </c>
-      <c r="B10" t="s">
-        <v>23</v>
-      </c>
-      <c r="C10" t="s">
-        <v>24</v>
-      </c>
-      <c r="D10" t="s">
-        <v>20</v>
-      </c>
       <c r="E10">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F10">
         <v>1</v>
       </c>
       <c r="G10">
-        <v>14.1053607791381</v>
+        <v>76.691513</v>
       </c>
       <c r="H10">
-        <v>14.1053607791381</v>
+        <v>230.074539</v>
       </c>
       <c r="I10">
-        <v>0.1515143122308818</v>
+        <v>0.7806729263793399</v>
       </c>
       <c r="J10">
-        <v>0.1515143122308818</v>
+        <v>0.7806729263793399</v>
       </c>
       <c r="K10">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L10">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M10">
-        <v>43.3312160282181</v>
+        <v>3.111826333333333</v>
       </c>
       <c r="N10">
-        <v>43.3312160282181</v>
+        <v>9.335478999999999</v>
       </c>
       <c r="O10">
-        <v>0.6521342183754182</v>
+        <v>0.04151448120903071</v>
       </c>
       <c r="P10">
-        <v>0.6521342183754182</v>
+        <v>0.04151448120903071</v>
       </c>
       <c r="Q10">
-        <v>611.2024350767879</v>
+        <v>238.6506696965756</v>
       </c>
       <c r="R10">
-        <v>611.2024350767879</v>
+        <v>2147.856027269181</v>
       </c>
       <c r="S10">
-        <v>0.09880766757937516</v>
+        <v>0.03240923153257412</v>
       </c>
       <c r="T10">
-        <v>0.09880766757937516</v>
+        <v>0.03240923153257412</v>
       </c>
     </row>
     <row r="11" spans="1:20">
       <c r="A11" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C11" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D11" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="E11">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F11">
         <v>1</v>
       </c>
       <c r="G11">
-        <v>14.1053607791381</v>
+        <v>76.691513</v>
       </c>
       <c r="H11">
-        <v>14.1053607791381</v>
+        <v>230.074539</v>
       </c>
       <c r="I11">
-        <v>0.1515143122308818</v>
+        <v>0.7806729263793399</v>
       </c>
       <c r="J11">
-        <v>0.1515143122308818</v>
+        <v>0.7806729263793399</v>
       </c>
       <c r="K11">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L11">
-        <v>1</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M11">
-        <v>2.92098964314601</v>
+        <v>0.2871186666666667</v>
       </c>
       <c r="N11">
-        <v>2.92098964314601</v>
+        <v>0.861356</v>
       </c>
       <c r="O11">
-        <v>0.04396085483904313</v>
+        <v>0.003830413787689508</v>
       </c>
       <c r="P11">
-        <v>0.04396085483904313</v>
+        <v>0.003830413787689508</v>
       </c>
       <c r="Q11">
-        <v>41.20161274870033</v>
+        <v>22.01956495720934</v>
       </c>
       <c r="R11">
-        <v>41.20161274870033</v>
+        <v>198.176084614884</v>
       </c>
       <c r="S11">
-        <v>0.006660698686019251</v>
+        <v>0.00299030034087934</v>
       </c>
       <c r="T11">
-        <v>0.006660698686019251</v>
+        <v>0.00299030034087934</v>
       </c>
     </row>
     <row r="12" spans="1:20">
       <c r="A12" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B12" t="s">
-        <v>23</v>
+        <v>24</v>
       </c>
       <c r="C12" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="D12" t="s">
-        <v>25</v>
+        <v>27</v>
       </c>
       <c r="E12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F12">
         <v>1</v>
       </c>
       <c r="G12">
-        <v>14.1053607791381</v>
+        <v>76.691513</v>
       </c>
       <c r="H12">
-        <v>14.1053607791381</v>
+        <v>230.074539</v>
       </c>
       <c r="I12">
-        <v>0.1515143122308818</v>
+        <v>0.7806729263793399</v>
       </c>
       <c r="J12">
-        <v>0.1515143122308818</v>
+        <v>0.7806729263793399</v>
       </c>
       <c r="K12">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L12">
         <v>1</v>
       </c>
       <c r="M12">
-        <v>0.545116597798324</v>
+        <v>0.5945973333333333</v>
       </c>
       <c r="N12">
-        <v>0.545116597798324</v>
+        <v>1.783792</v>
       </c>
       <c r="O12">
-        <v>0.008203997464487866</v>
+        <v>0.007932447758151382</v>
       </c>
       <c r="P12">
-        <v>0.008203997464487866</v>
+        <v>0.007932447758151382</v>
       </c>
       <c r="Q12">
-        <v>7.689066278641678</v>
+        <v>45.60056911909867</v>
       </c>
       <c r="R12">
-        <v>7.689066278641678</v>
+        <v>410.405122071888</v>
       </c>
       <c r="S12">
-        <v>0.001243023033375777</v>
+        <v>0.006192647204707274</v>
       </c>
       <c r="T12">
-        <v>0.001243023033375777</v>
+        <v>0.006192647204707274</v>
       </c>
     </row>
     <row r="13" spans="1:20">
       <c r="A13" t="s">
+        <v>21</v>
+      </c>
+      <c r="B13" t="s">
+        <v>24</v>
+      </c>
+      <c r="C13" t="s">
+        <v>25</v>
+      </c>
+      <c r="D13" t="s">
+        <v>23</v>
+      </c>
+      <c r="E13">
+        <v>3</v>
+      </c>
+      <c r="F13">
+        <v>1</v>
+      </c>
+      <c r="G13">
+        <v>76.691513</v>
+      </c>
+      <c r="H13">
+        <v>230.074539</v>
+      </c>
+      <c r="I13">
+        <v>0.7806729263793399</v>
+      </c>
+      <c r="J13">
+        <v>0.7806729263793399</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>21.18675466666667</v>
+      </c>
+      <c r="N13">
+        <v>63.560264</v>
+      </c>
+      <c r="O13">
+        <v>0.2826498121273726</v>
+      </c>
+      <c r="P13">
+        <v>0.2826498121273725</v>
+      </c>
+      <c r="Q13">
+        <v>1624.844270946478</v>
+      </c>
+      <c r="R13">
+        <v>14623.5984385183</v>
+      </c>
+      <c r="S13">
+        <v>0.2206570559740466</v>
+      </c>
+      <c r="T13">
+        <v>0.2206570559740465</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
         <v>22</v>
       </c>
-      <c r="B13" t="s">
+      <c r="B14" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" t="s">
+        <v>25</v>
+      </c>
+      <c r="D14" t="s">
+        <v>20</v>
+      </c>
+      <c r="E14">
+        <v>1</v>
+      </c>
+      <c r="F14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G14">
+        <v>0.097817</v>
+      </c>
+      <c r="H14">
+        <v>0.293451</v>
+      </c>
+      <c r="I14">
+        <v>0.0009957175266531498</v>
+      </c>
+      <c r="J14">
+        <v>0.00099571752665315</v>
+      </c>
+      <c r="K14">
+        <v>3</v>
+      </c>
+      <c r="L14">
+        <v>1</v>
+      </c>
+      <c r="M14">
+        <v>46.85312199999999</v>
+      </c>
+      <c r="N14">
+        <v>140.559366</v>
+      </c>
+      <c r="O14">
+        <v>0.6250615697984292</v>
+      </c>
+      <c r="P14">
+        <v>0.6250615697984292</v>
+      </c>
+      <c r="Q14">
+        <v>4.583031834673999</v>
+      </c>
+      <c r="R14">
+        <v>41.247286512066</v>
+      </c>
+      <c r="S14">
+        <v>0.0006223847602856271</v>
+      </c>
+      <c r="T14">
+        <v>0.0006223847602856272</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>24</v>
+      </c>
+      <c r="C15" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" t="s">
+        <v>21</v>
+      </c>
+      <c r="E15">
+        <v>1</v>
+      </c>
+      <c r="F15">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G15">
+        <v>0.097817</v>
+      </c>
+      <c r="H15">
+        <v>0.293451</v>
+      </c>
+      <c r="I15">
+        <v>0.0009957175266531498</v>
+      </c>
+      <c r="J15">
+        <v>0.00099571752665315</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>2.924192</v>
+      </c>
+      <c r="N15">
+        <v>8.772575999999999</v>
+      </c>
+      <c r="O15">
+        <v>0.03901127531932681</v>
+      </c>
+      <c r="P15">
+        <v>0.03901127531932681</v>
+      </c>
+      <c r="Q15">
+        <v>0.286035688864</v>
+      </c>
+      <c r="R15">
+        <v>2.574321199776</v>
+      </c>
+      <c r="S15">
+        <v>3.884421057254516E-05</v>
+      </c>
+      <c r="T15">
+        <v>3.884421057254517E-05</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>24</v>
+      </c>
+      <c r="C16" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E16">
+        <v>1</v>
+      </c>
+      <c r="F16">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G16">
+        <v>0.097817</v>
+      </c>
+      <c r="H16">
+        <v>0.293451</v>
+      </c>
+      <c r="I16">
+        <v>0.0009957175266531498</v>
+      </c>
+      <c r="J16">
+        <v>0.00099571752665315</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>3.111826333333333</v>
+      </c>
+      <c r="N16">
+        <v>9.335478999999999</v>
+      </c>
+      <c r="O16">
+        <v>0.04151448120903071</v>
+      </c>
+      <c r="P16">
+        <v>0.04151448120903071</v>
+      </c>
+      <c r="Q16">
+        <v>0.3043895164476667</v>
+      </c>
+      <c r="R16">
+        <v>2.739505648029</v>
+      </c>
+      <c r="S16">
+        <v>4.133669654974472E-05</v>
+      </c>
+      <c r="T16">
+        <v>4.133669654974473E-05</v>
+      </c>
+    </row>
+    <row r="17" spans="1:20">
+      <c r="A17" t="s">
+        <v>22</v>
+      </c>
+      <c r="B17" t="s">
+        <v>24</v>
+      </c>
+      <c r="C17" t="s">
+        <v>25</v>
+      </c>
+      <c r="D17" t="s">
+        <v>26</v>
+      </c>
+      <c r="E17">
+        <v>1</v>
+      </c>
+      <c r="F17">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G17">
+        <v>0.097817</v>
+      </c>
+      <c r="H17">
+        <v>0.293451</v>
+      </c>
+      <c r="I17">
+        <v>0.0009957175266531498</v>
+      </c>
+      <c r="J17">
+        <v>0.00099571752665315</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M17">
+        <v>0.2871186666666667</v>
+      </c>
+      <c r="N17">
+        <v>0.861356</v>
+      </c>
+      <c r="O17">
+        <v>0.003830413787689508</v>
+      </c>
+      <c r="P17">
+        <v>0.003830413787689508</v>
+      </c>
+      <c r="Q17">
+        <v>0.02808508661733334</v>
+      </c>
+      <c r="R17">
+        <v>0.252765779556</v>
+      </c>
+      <c r="S17">
+        <v>3.814010142736321E-06</v>
+      </c>
+      <c r="T17">
+        <v>3.814010142736321E-06</v>
+      </c>
+    </row>
+    <row r="18" spans="1:20">
+      <c r="A18" t="s">
+        <v>22</v>
+      </c>
+      <c r="B18" t="s">
+        <v>24</v>
+      </c>
+      <c r="C18" t="s">
+        <v>25</v>
+      </c>
+      <c r="D18" t="s">
+        <v>27</v>
+      </c>
+      <c r="E18">
+        <v>1</v>
+      </c>
+      <c r="F18">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G18">
+        <v>0.097817</v>
+      </c>
+      <c r="H18">
+        <v>0.293451</v>
+      </c>
+      <c r="I18">
+        <v>0.0009957175266531498</v>
+      </c>
+      <c r="J18">
+        <v>0.00099571752665315</v>
+      </c>
+      <c r="K18">
+        <v>3</v>
+      </c>
+      <c r="L18">
+        <v>1</v>
+      </c>
+      <c r="M18">
+        <v>0.5945973333333333</v>
+      </c>
+      <c r="N18">
+        <v>1.783792</v>
+      </c>
+      <c r="O18">
+        <v>0.007932447758151382</v>
+      </c>
+      <c r="P18">
+        <v>0.007932447758151382</v>
+      </c>
+      <c r="Q18">
+        <v>0.05816172735466667</v>
+      </c>
+      <c r="R18">
+        <v>0.5234555461920001</v>
+      </c>
+      <c r="S18">
+        <v>7.898477262051817E-06</v>
+      </c>
+      <c r="T18">
+        <v>7.898477262051819E-06</v>
+      </c>
+    </row>
+    <row r="19" spans="1:20">
+      <c r="A19" t="s">
+        <v>22</v>
+      </c>
+      <c r="B19" t="s">
+        <v>24</v>
+      </c>
+      <c r="C19" t="s">
+        <v>25</v>
+      </c>
+      <c r="D19" t="s">
         <v>23</v>
       </c>
-      <c r="C13" t="s">
-        <v>24</v>
-      </c>
-      <c r="D13" t="s">
+      <c r="E19">
+        <v>1</v>
+      </c>
+      <c r="F19">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G19">
+        <v>0.097817</v>
+      </c>
+      <c r="H19">
+        <v>0.293451</v>
+      </c>
+      <c r="I19">
+        <v>0.0009957175266531498</v>
+      </c>
+      <c r="J19">
+        <v>0.00099571752665315</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>1</v>
+      </c>
+      <c r="M19">
+        <v>21.18675466666667</v>
+      </c>
+      <c r="N19">
+        <v>63.560264</v>
+      </c>
+      <c r="O19">
+        <v>0.2826498121273726</v>
+      </c>
+      <c r="P19">
+        <v>0.2826498121273725</v>
+      </c>
+      <c r="Q19">
+        <v>2.072424781229333</v>
+      </c>
+      <c r="R19">
+        <v>18.651823031064</v>
+      </c>
+      <c r="S19">
+        <v>0.0002814393718404449</v>
+      </c>
+      <c r="T19">
+        <v>0.0002814393718404449</v>
+      </c>
+    </row>
+    <row r="20" spans="1:20">
+      <c r="A20" t="s">
+        <v>23</v>
+      </c>
+      <c r="B20" t="s">
+        <v>24</v>
+      </c>
+      <c r="C20" t="s">
+        <v>25</v>
+      </c>
+      <c r="D20" t="s">
+        <v>20</v>
+      </c>
+      <c r="E20">
+        <v>3</v>
+      </c>
+      <c r="F20">
+        <v>1</v>
+      </c>
+      <c r="G20">
+        <v>17.62599333333333</v>
+      </c>
+      <c r="H20">
+        <v>52.87798</v>
+      </c>
+      <c r="I20">
+        <v>0.1794218846077019</v>
+      </c>
+      <c r="J20">
+        <v>0.1794218846077019</v>
+      </c>
+      <c r="K20">
+        <v>3</v>
+      </c>
+      <c r="L20">
+        <v>1</v>
+      </c>
+      <c r="M20">
+        <v>46.85312199999999</v>
+      </c>
+      <c r="N20">
+        <v>140.559366</v>
+      </c>
+      <c r="O20">
+        <v>0.6250615697984292</v>
+      </c>
+      <c r="P20">
+        <v>0.6250615697984292</v>
+      </c>
+      <c r="Q20">
+        <v>825.8328160178532</v>
+      </c>
+      <c r="R20">
+        <v>7432.495344160679</v>
+      </c>
+      <c r="S20">
+        <v>0.1121497248490828</v>
+      </c>
+      <c r="T20">
+        <v>0.1121497248490828</v>
+      </c>
+    </row>
+    <row r="21" spans="1:20">
+      <c r="A21" t="s">
+        <v>23</v>
+      </c>
+      <c r="B21" t="s">
+        <v>24</v>
+      </c>
+      <c r="C21" t="s">
+        <v>25</v>
+      </c>
+      <c r="D21" t="s">
+        <v>21</v>
+      </c>
+      <c r="E21">
+        <v>3</v>
+      </c>
+      <c r="F21">
+        <v>1</v>
+      </c>
+      <c r="G21">
+        <v>17.62599333333333</v>
+      </c>
+      <c r="H21">
+        <v>52.87798</v>
+      </c>
+      <c r="I21">
+        <v>0.1794218846077019</v>
+      </c>
+      <c r="J21">
+        <v>0.1794218846077019</v>
+      </c>
+      <c r="K21">
+        <v>3</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>2.924192</v>
+      </c>
+      <c r="N21">
+        <v>8.772575999999999</v>
+      </c>
+      <c r="O21">
+        <v>0.03901127531932681</v>
+      </c>
+      <c r="P21">
+        <v>0.03901127531932681</v>
+      </c>
+      <c r="Q21">
+        <v>51.54178869738666</v>
+      </c>
+      <c r="R21">
+        <v>463.87609827648</v>
+      </c>
+      <c r="S21">
+        <v>0.006999476538743544</v>
+      </c>
+      <c r="T21">
+        <v>0.006999476538743546</v>
+      </c>
+    </row>
+    <row r="22" spans="1:20">
+      <c r="A22" t="s">
+        <v>23</v>
+      </c>
+      <c r="B22" t="s">
+        <v>24</v>
+      </c>
+      <c r="C22" t="s">
+        <v>25</v>
+      </c>
+      <c r="D22" t="s">
         <v>22</v>
       </c>
-      <c r="E13">
-        <v>1</v>
-      </c>
-      <c r="F13">
-        <v>1</v>
-      </c>
-      <c r="G13">
-        <v>14.1053607791381</v>
-      </c>
-      <c r="H13">
-        <v>14.1053607791381</v>
-      </c>
-      <c r="I13">
-        <v>0.1515143122308818</v>
-      </c>
-      <c r="J13">
-        <v>0.1515143122308818</v>
-      </c>
-      <c r="K13">
-        <v>1</v>
-      </c>
-      <c r="L13">
-        <v>1</v>
-      </c>
-      <c r="M13">
-        <v>19.6479198409109</v>
-      </c>
-      <c r="N13">
-        <v>19.6479198409109</v>
-      </c>
-      <c r="O13">
-        <v>0.2957009293210507</v>
-      </c>
-      <c r="P13">
-        <v>0.2957009293210507</v>
-      </c>
-      <c r="Q13">
-        <v>277.1409979156339</v>
-      </c>
-      <c r="R13">
-        <v>277.1409979156339</v>
-      </c>
-      <c r="S13">
-        <v>0.04480292293211159</v>
-      </c>
-      <c r="T13">
-        <v>0.04480292293211159</v>
+      <c r="E22">
+        <v>3</v>
+      </c>
+      <c r="F22">
+        <v>1</v>
+      </c>
+      <c r="G22">
+        <v>17.62599333333333</v>
+      </c>
+      <c r="H22">
+        <v>52.87798</v>
+      </c>
+      <c r="I22">
+        <v>0.1794218846077019</v>
+      </c>
+      <c r="J22">
+        <v>0.1794218846077019</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M22">
+        <v>3.111826333333333</v>
+      </c>
+      <c r="N22">
+        <v>9.335478999999999</v>
+      </c>
+      <c r="O22">
+        <v>0.04151448120903071</v>
+      </c>
+      <c r="P22">
+        <v>0.04151448120903071</v>
+      </c>
+      <c r="Q22">
+        <v>54.84903020582444</v>
+      </c>
+      <c r="R22">
+        <v>493.64127185242</v>
+      </c>
+      <c r="S22">
+        <v>0.007448606457035317</v>
+      </c>
+      <c r="T22">
+        <v>0.007448606457035318</v>
+      </c>
+    </row>
+    <row r="23" spans="1:20">
+      <c r="A23" t="s">
+        <v>23</v>
+      </c>
+      <c r="B23" t="s">
+        <v>24</v>
+      </c>
+      <c r="C23" t="s">
+        <v>25</v>
+      </c>
+      <c r="D23" t="s">
+        <v>26</v>
+      </c>
+      <c r="E23">
+        <v>3</v>
+      </c>
+      <c r="F23">
+        <v>1</v>
+      </c>
+      <c r="G23">
+        <v>17.62599333333333</v>
+      </c>
+      <c r="H23">
+        <v>52.87798</v>
+      </c>
+      <c r="I23">
+        <v>0.1794218846077019</v>
+      </c>
+      <c r="J23">
+        <v>0.1794218846077019</v>
+      </c>
+      <c r="K23">
+        <v>2</v>
+      </c>
+      <c r="L23">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M23">
+        <v>0.2871186666666667</v>
+      </c>
+      <c r="N23">
+        <v>0.861356</v>
+      </c>
+      <c r="O23">
+        <v>0.003830413787689508</v>
+      </c>
+      <c r="P23">
+        <v>0.003830413787689508</v>
+      </c>
+      <c r="Q23">
+        <v>5.060751704542223</v>
+      </c>
+      <c r="R23">
+        <v>45.54676534088</v>
+      </c>
+      <c r="S23">
+        <v>0.0006872600606145772</v>
+      </c>
+      <c r="T23">
+        <v>0.0006872600606145774</v>
+      </c>
+    </row>
+    <row r="24" spans="1:20">
+      <c r="A24" t="s">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>24</v>
+      </c>
+      <c r="C24" t="s">
+        <v>25</v>
+      </c>
+      <c r="D24" t="s">
+        <v>27</v>
+      </c>
+      <c r="E24">
+        <v>3</v>
+      </c>
+      <c r="F24">
+        <v>1</v>
+      </c>
+      <c r="G24">
+        <v>17.62599333333333</v>
+      </c>
+      <c r="H24">
+        <v>52.87798</v>
+      </c>
+      <c r="I24">
+        <v>0.1794218846077019</v>
+      </c>
+      <c r="J24">
+        <v>0.1794218846077019</v>
+      </c>
+      <c r="K24">
+        <v>3</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>0.5945973333333333</v>
+      </c>
+      <c r="N24">
+        <v>1.783792</v>
+      </c>
+      <c r="O24">
+        <v>0.007932447758151382</v>
+      </c>
+      <c r="P24">
+        <v>0.007932447758151382</v>
+      </c>
+      <c r="Q24">
+        <v>10.48036863335111</v>
+      </c>
+      <c r="R24">
+        <v>94.32331770016</v>
+      </c>
+      <c r="S24">
+        <v>0.001423254726319661</v>
+      </c>
+      <c r="T24">
+        <v>0.001423254726319661</v>
+      </c>
+    </row>
+    <row r="25" spans="1:20">
+      <c r="A25" t="s">
+        <v>23</v>
+      </c>
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+      <c r="C25" t="s">
+        <v>25</v>
+      </c>
+      <c r="D25" t="s">
+        <v>23</v>
+      </c>
+      <c r="E25">
+        <v>3</v>
+      </c>
+      <c r="F25">
+        <v>1</v>
+      </c>
+      <c r="G25">
+        <v>17.62599333333333</v>
+      </c>
+      <c r="H25">
+        <v>52.87798</v>
+      </c>
+      <c r="I25">
+        <v>0.1794218846077019</v>
+      </c>
+      <c r="J25">
+        <v>0.1794218846077019</v>
+      </c>
+      <c r="K25">
+        <v>3</v>
+      </c>
+      <c r="L25">
+        <v>1</v>
+      </c>
+      <c r="M25">
+        <v>21.18675466666667</v>
+      </c>
+      <c r="N25">
+        <v>63.560264</v>
+      </c>
+      <c r="O25">
+        <v>0.2826498121273726</v>
+      </c>
+      <c r="P25">
+        <v>0.2826498121273725</v>
+      </c>
+      <c r="Q25">
+        <v>373.4375965096356</v>
+      </c>
+      <c r="R25">
+        <v>3360.93836858672</v>
+      </c>
+      <c r="S25">
+        <v>0.05071356197590605</v>
+      </c>
+      <c r="T25">
+        <v>0.05071356197590605</v>
       </c>
     </row>
   </sheetData>
